--- a/sample.xlsx
+++ b/sample.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foxitsoftware Foxit Reader" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foxitsoftware Reader" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Foxitsoftware Phantompdf" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adobe Acrobat" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adobe Acrobat Dc" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adobe Acrobat Reader" sheetId="7" state="visible" r:id="rId7"/>
@@ -14240,7 +14240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14379,32 +14379,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CVE-2016-8856</t>
+          <t>CVE-2018-17706</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Local</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2016-10-31</t>
+          <t>2018-10-29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Foxit Reader for Mac 2.1.0.0804 and earlier and Foxit Reader for Linux 2.1.0.0805 and earlier suffered from a vulnerability where weak file permissions could be exploited by attackers to execute arbitrary code. After the installation, Foxit Reader's core files were world-writable by default, allowing an attacker to overwrite them with backdoor code, which when executed by privileged user would result in Privilege Escalation, Code Execution, or both.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit PhantomPDF Phantom PDF 9.1.5096. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within fxhtml2pdf. The issue results from the lack of proper validation of user-supplied data, which can result in a memory access past the end of an allocated buffer. An attacker can leverage this vulnerability to execute code under the context of the current process. Was ZDI-CAN-6230.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2016-8856/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17706/</t>
         </is>
       </c>
     </row>
@@ -14507,7 +14507,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CVE-2018-17621</t>
+          <t>CVE-2018-17620</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -14527,19 +14527,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.0.1.5096. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of Format events. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6355.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.0.1.5096. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of Calculate events. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6353.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17621/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17620/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CVE-2018-17620</t>
+          <t>CVE-2018-17618</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -14559,19 +14559,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.0.1.5096. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of Calculate events. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6353.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.0.1.5096. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of Selection Change events. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6336.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17620/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17618/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CVE-2018-17619</t>
+          <t>CVE-2018-17616</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -14591,19 +14591,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.0.1.5096. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of Validate events. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6352.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.0.1.5096. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of onBlur events. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6334.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17619/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17616/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CVE-2018-17618</t>
+          <t>CVE-2018-17615</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -14623,19 +14623,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.0.1.5096. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of Selection Change events. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6336.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.0.1.5096. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of Mouse Exit events. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6333.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17618/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17615/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CVE-2018-17617</t>
+          <t>CVE-2018-17611</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -14645,29 +14645,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2018-10-29</t>
+          <t>2018-09-28</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.0.1.5096. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of onFocus events. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6335.</t>
+          <t>Foxit PhantomPDF and Reader before 9.3 allow remote attackers to execute arbitrary code or cause a denial of service (use-after-free) because properties of Annotation objects are mishandled. This relates to one of five distinct types of Annotation objects.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17617/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17611/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CVE-2018-17616</t>
+          <t>CVE-2018-17610</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -14677,29 +14677,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2018-10-29</t>
+          <t>2018-09-28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.0.1.5096. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of onBlur events. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6334.</t>
+          <t>Foxit PhantomPDF and Reader before 9.3 allow remote attackers to execute arbitrary code or cause a denial of service (use-after-free) because properties of Annotation objects are mishandled. This relates to one of five distinct types of Annotation objects.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17616/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17610/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CVE-2018-17615</t>
+          <t>CVE-2018-17609</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -14709,29 +14709,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>7.5</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2018-10-29</t>
+          <t>2018-09-28</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.0.1.5096. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of Mouse Exit events. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6333.</t>
+          <t>Foxit PhantomPDF and Reader before 9.3 allow remote attackers to execute arbitrary code or cause a denial of service (use-after-free) because properties of Annotation objects are mishandled. This relates to one of five distinct types of Annotation objects.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17615/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17609/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CVE-2018-17611</t>
+          <t>CVE-2018-17608</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -14756,14 +14756,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17611/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17608/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CVE-2018-17610</t>
+          <t>CVE-2018-17607</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -14788,14 +14788,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17610/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17607/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CVE-2018-17609</t>
+          <t>CVE-2018-16297</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -14805,29 +14805,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2018-09-28</t>
+          <t>2018-10-08</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Foxit PhantomPDF and Reader before 9.3 allow remote attackers to execute arbitrary code or cause a denial of service (use-after-free) because properties of Annotation objects are mishandled. This relates to one of five distinct types of Annotation objects.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Reader before 9.3 and PhantomPDF before 9.3, a different vulnerability than CVE-2018-16291, CVE-2018-16292, CVE-2018-16293, CVE-2018-16294, CVE-2018-16295, and CVE-2018-16296. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17609/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-16297/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CVE-2018-17608</t>
+          <t>CVE-2018-16296</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -14837,29 +14837,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2018-09-28</t>
+          <t>2018-10-08</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Foxit PhantomPDF and Reader before 9.3 allow remote attackers to execute arbitrary code or cause a denial of service (use-after-free) because properties of Annotation objects are mishandled. This relates to one of five distinct types of Annotation objects.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Reader before 9.3 and PhantomPDF before 9.3, a different vulnerability than CVE-2018-16291, CVE-2018-16292, CVE-2018-16293, CVE-2018-16294, CVE-2018-16295, and CVE-2018-16297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17608/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-16296/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CVE-2018-17607</t>
+          <t>CVE-2018-16295</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -14869,29 +14869,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2018-09-28</t>
+          <t>2018-10-08</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Foxit PhantomPDF and Reader before 9.3 allow remote attackers to execute arbitrary code or cause a denial of service (use-after-free) because properties of Annotation objects are mishandled. This relates to one of five distinct types of Annotation objects.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Reader before 9.3 and PhantomPDF before 9.3, a different vulnerability than CVE-2018-16291, CVE-2018-16292, CVE-2018-16293, CVE-2018-16294, CVE-2018-16296, and CVE-2018-16297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17607/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-16295/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CVE-2018-16297</t>
+          <t>CVE-2018-16294</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -14911,19 +14911,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Reader before 9.3 and PhantomPDF before 9.3, a different vulnerability than CVE-2018-16291, CVE-2018-16292, CVE-2018-16293, CVE-2018-16294, CVE-2018-16295, and CVE-2018-16296. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Reader before 9.3 and PhantomPDF before 9.3, a different vulnerability than CVE-2018-16291, CVE-2018-16292, CVE-2018-16293, CVE-2018-16295, CVE-2018-16296, and CVE-2018-16297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-16297/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-16294/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CVE-2018-16296</t>
+          <t>CVE-2018-16293</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -14943,19 +14943,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Reader before 9.3 and PhantomPDF before 9.3, a different vulnerability than CVE-2018-16291, CVE-2018-16292, CVE-2018-16293, CVE-2018-16294, CVE-2018-16295, and CVE-2018-16297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Reader before 9.3 and PhantomPDF before 9.3, a different vulnerability than CVE-2018-16291, CVE-2018-16292, CVE-2018-16294, CVE-2018-16295, CVE-2018-16296, and CVE-2018-16297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-16296/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-16293/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CVE-2018-16295</t>
+          <t>CVE-2018-16292</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -14975,19 +14975,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Reader before 9.3 and PhantomPDF before 9.3, a different vulnerability than CVE-2018-16291, CVE-2018-16292, CVE-2018-16293, CVE-2018-16294, CVE-2018-16296, and CVE-2018-16297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Reader before 9.3 and PhantomPDF before 9.3, a different vulnerability than CVE-2018-16291, CVE-2018-16293, CVE-2018-16294, CVE-2018-16295, CVE-2018-16296, and CVE-2018-16297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-16295/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-16292/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CVE-2018-16294</t>
+          <t>CVE-2018-16291</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -15007,19 +15007,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Reader before 9.3 and PhantomPDF before 9.3, a different vulnerability than CVE-2018-16291, CVE-2018-16292, CVE-2018-16293, CVE-2018-16295, CVE-2018-16296, and CVE-2018-16297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Reader before 9.3 and PhantomPDF before 9.3, a different vulnerability than CVE-2018-16292, CVE-2018-16293, CVE-2018-16294, CVE-2018-16295, CVE-2018-16296, and CVE-2018-16297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-16294/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-16291/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CVE-2018-16293</t>
+          <t>CVE-2018-7407</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -15034,24 +15034,24 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2018-10-08</t>
+          <t>2018-05-24</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Reader before 9.3 and PhantomPDF before 9.3, a different vulnerability than CVE-2018-16291, CVE-2018-16292, CVE-2018-16294, CVE-2018-16295, CVE-2018-16296, and CVE-2018-16297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>An issue was discovered in Foxit Reader before 9.1 and PhantomPDF before 9.1. This vulnerability allows remote attackers to execute arbitrary code. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists when rendering U3D images inside of pdf files. The issue results from the lack of proper validation of user-supplied data, which can result in a type confusion condition. An attacker can leverage this to execute code in the context of the current process.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-16293/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-7407/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CVE-2018-16292</t>
+          <t>CVE-2018-7406</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -15066,24 +15066,24 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2018-10-08</t>
+          <t>2018-05-24</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Reader before 9.3 and PhantomPDF before 9.3, a different vulnerability than CVE-2018-16291, CVE-2018-16293, CVE-2018-16294, CVE-2018-16295, CVE-2018-16296, and CVE-2018-16297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>An issue was discovered in Foxit Reader before 9.1 and PhantomPDF before 9.1. This vulnerability allows remote attackers to execute arbitrary code. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the u3d images inside of a pdf. The issue results from the lack of proper validation of user-supplied data, which can result in an array indexing issue. An attacker can leverage this to execute code in the context of the current process.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-16292/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-7406/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CVE-2018-16291</t>
+          <t>CVE-2018-5680</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -15098,24 +15098,24 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2018-10-08</t>
+          <t>2018-05-24</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Reader before 9.3 and PhantomPDF before 9.3, a different vulnerability than CVE-2018-16292, CVE-2018-16293, CVE-2018-16294, CVE-2018-16295, CVE-2018-16296, and CVE-2018-16297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader before 9.1 and PhantomPDF before 9.1. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the processing of specially crafted pdf files with embedded u3d images. The issue results from the lack of proper validation of user-supplied data, which can result in a read past the end of an allocated object. An attacker can leverage this in conjunction with other vulnerabilities to execute code in the context of the current process, a different vulnerability than CVE-2018-5677 and CVE-2018-5679.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-16291/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-5680/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CVE-2018-7407</t>
+          <t>CVE-2018-5679</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -15135,19 +15135,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>An issue was discovered in Foxit Reader before 9.1 and PhantomPDF before 9.1. This vulnerability allows remote attackers to execute arbitrary code. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists when rendering U3D images inside of pdf files. The issue results from the lack of proper validation of user-supplied data, which can result in a type confusion condition. An attacker can leverage this to execute code in the context of the current process.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader before 9.1 and PhantomPDF before 9.1. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the processing of specially crafted pdf files with embedded u3d images. The issue results from the lack of proper validation of user-supplied data, which can result in a read past the end of an allocated object. An attacker can leverage this in conjunction with other vulnerabilities to execute code in the context of the current process, a different vulnerability than CVE-2018-5677 and CVE-2018-5680.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-7407/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-5679/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CVE-2018-7406</t>
+          <t>CVE-2018-5678</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -15167,19 +15167,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>An issue was discovered in Foxit Reader before 9.1 and PhantomPDF before 9.1. This vulnerability allows remote attackers to execute arbitrary code. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the u3d images inside of a pdf. The issue results from the lack of proper validation of user-supplied data, which can result in an array indexing issue. An attacker can leverage this to execute code in the context of the current process.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader before 9.1 and PhantomPDF before 9.1. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the processing of specially crafted pdf files with embedded u3d images. Crafted data in the PDF file can trigger an overflow of a heap-based buffer. An attacker can leverage this vulnerability to execute code under the context of the current process, a different vulnerability than CVE-2018-5674 and CVE-2018-5676.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-7406/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-5678/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CVE-2018-5680</t>
+          <t>CVE-2018-5677</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -15199,19 +15199,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader before 9.1 and PhantomPDF before 9.1. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the processing of specially crafted pdf files with embedded u3d images. The issue results from the lack of proper validation of user-supplied data, which can result in a read past the end of an allocated object. An attacker can leverage this in conjunction with other vulnerabilities to execute code in the context of the current process, a different vulnerability than CVE-2018-5677 and CVE-2018-5679.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader before 9.1 and PhantomPDF before 9.1. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the processing of specially crafted pdf files with embedded u3d images. The issue results from the lack of proper validation of user-supplied data, which can result in a read past the end of an allocated object. An attacker can leverage this in conjunction with other vulnerabilities to execute code in the context of the current process, a different vulnerability than CVE-2018-5679 and CVE-2018-5680.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-5680/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-5677/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CVE-2018-5679</t>
+          <t>CVE-2018-5676</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -15231,19 +15231,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader before 9.1 and PhantomPDF before 9.1. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the processing of specially crafted pdf files with embedded u3d images. The issue results from the lack of proper validation of user-supplied data, which can result in a read past the end of an allocated object. An attacker can leverage this in conjunction with other vulnerabilities to execute code in the context of the current process, a different vulnerability than CVE-2018-5677 and CVE-2018-5680.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader before 9.1 and PhantomPDF before 9.1. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the processing of specially crafted pdf files with embedded u3d images. Crafted data in the PDF file can trigger an overflow of a heap-based buffer. An attacker can leverage this vulnerability to execute code under the context of the current process, a different vulnerability than CVE-2018-5674 and CVE-2018-5678.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-5679/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-5676/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CVE-2018-5678</t>
+          <t>CVE-2018-5675</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -15263,19 +15263,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader before 9.1 and PhantomPDF before 9.1. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the processing of specially crafted pdf files with embedded u3d images. Crafted data in the PDF file can trigger an overflow of a heap-based buffer. An attacker can leverage this vulnerability to execute code under the context of the current process, a different vulnerability than CVE-2018-5674 and CVE-2018-5676.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader before 9.1 and PhantomPDF before 9.1. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the processing of specially crafted pdf files with embedded u3d images. Crafted data in the PDF file can trigger an out-of-bounds write on a buffer. An attacker can leverage this vulnerability to execute code under the context of the current process.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-5678/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-5675/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CVE-2018-5677</t>
+          <t>CVE-2018-5674</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -15295,19 +15295,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader before 9.1 and PhantomPDF before 9.1. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the processing of specially crafted pdf files with embedded u3d images. The issue results from the lack of proper validation of user-supplied data, which can result in a read past the end of an allocated object. An attacker can leverage this in conjunction with other vulnerabilities to execute code in the context of the current process, a different vulnerability than CVE-2018-5679 and CVE-2018-5680.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader before 9.1 and PhantomPDF before 9.1. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the processing of specially crafted pdf files with embedded u3d images. Crafted data in the PDF file can trigger an overflow of a heap-based buffer. An attacker can leverage this vulnerability to execute code under the context of the current process, a different vulnerability than CVE-2018-5676 and CVE-2018-5678.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-5677/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-5674/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CVE-2018-5676</t>
+          <t>CVE-2018-3997</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -15322,24 +15322,24 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2018-05-24</t>
+          <t>2018-10-08</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader before 9.1 and PhantomPDF before 9.1. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the processing of specially crafted pdf files with embedded u3d images. Crafted data in the PDF file can trigger an overflow of a heap-based buffer. An attacker can leverage this vulnerability to execute code under the context of the current process, a different vulnerability than CVE-2018-5674 and CVE-2018-5678.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader, version 9.2.0.9297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-5676/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-3997/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CVE-2018-5675</t>
+          <t>CVE-2018-3996</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -15354,24 +15354,24 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2018-05-24</t>
+          <t>2018-10-08</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader before 9.1 and PhantomPDF before 9.1. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the processing of specially crafted pdf files with embedded u3d images. Crafted data in the PDF file can trigger an out-of-bounds write on a buffer. An attacker can leverage this vulnerability to execute code under the context of the current process.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's PDF Reader, version 9.2.0.9297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-5675/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-3996/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CVE-2018-5674</t>
+          <t>CVE-2018-3995</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -15386,24 +15386,24 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2018-05-24</t>
+          <t>2018-10-03</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader before 9.1 and PhantomPDF before 9.1. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the processing of specially crafted pdf files with embedded u3d images. Crafted data in the PDF file can trigger an overflow of a heap-based buffer. An attacker can leverage this vulnerability to execute code under the context of the current process, a different vulnerability than CVE-2018-5676 and CVE-2018-5678.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's PDF Reader, version 9.2.0.9297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-5674/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-3995/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CVE-2018-3997</t>
+          <t>CVE-2018-3994</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -15418,24 +15418,24 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2018-10-08</t>
+          <t>2018-10-03</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader, version 9.2.0.9297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader version 9.2.0.9297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-3997/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-3994/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CVE-2018-3996</t>
+          <t>CVE-2018-3993</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -15450,24 +15450,24 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2018-10-08</t>
+          <t>2018-10-03</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's PDF Reader, version 9.2.0.9297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader version 9.2.0.9297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-3996/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-3993/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CVE-2018-3995</t>
+          <t>CVE-2018-3992</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -15482,24 +15482,24 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2018-10-03</t>
+          <t>2018-10-08</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's PDF Reader, version 9.2.0.9297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader, version 9.2.0.9297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-3995/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-3992/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CVE-2018-3994</t>
+          <t>CVE-2018-3967</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -15519,19 +15519,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader version 9.2.0.9297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-3994/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-3967/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CVE-2018-3993</t>
+          <t>CVE-2018-3966</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -15551,19 +15551,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader version 9.2.0.9297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-3993/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-3966/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CVE-2018-3992</t>
+          <t>CVE-2018-3965</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -15578,24 +15578,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2018-10-08</t>
+          <t>2018-10-03</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader, version 9.2.0.9297. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-3992/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-3965/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CVE-2018-3967</t>
+          <t>CVE-2018-3964</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -15620,14 +15620,14 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-3967/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-3964/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CVE-2018-3966</t>
+          <t>CVE-2018-3946</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -15647,19 +15647,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's PDF Reader version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-3966/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-3946/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CVE-2018-3965</t>
+          <t>CVE-2018-3945</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -15674,24 +15674,24 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2018-10-03</t>
+          <t>2018-10-08</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-3965/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-3945/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CVE-2018-3964</t>
+          <t>CVE-2018-3944</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -15706,24 +15706,24 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2018-10-03</t>
+          <t>2018-10-02</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's PDF Reader, version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-3964/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-3944/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CVE-2018-3946</t>
+          <t>CVE-2018-3943</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -15738,24 +15738,24 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2018-10-03</t>
+          <t>2018-10-02</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's PDF Reader version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's PDF Reader, version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-3946/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-3943/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CVE-2018-3945</t>
+          <t>CVE-2018-3942</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -15775,19 +15775,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's PDF Reader, version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-3945/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-3942/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CVE-2018-3944</t>
+          <t>CVE-2018-3941</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -15802,24 +15802,24 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2018-10-02</t>
+          <t>2018-10-08</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's PDF Reader, version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-3944/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-3941/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CVE-2018-3943</t>
+          <t>CVE-2018-17687</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -15834,24 +15834,24 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2018-10-02</t>
+          <t>2019-01-23</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's PDF Reader, version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability. If the browser plugin extension is enabled, visiting a malicious site can also trigger the vulnerability.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit PhantomPDF 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the exportValues property of a radio button. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-7068.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-3943/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17687/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CVE-2018-3942</t>
+          <t>CVE-2018-17686</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -15861,29 +15861,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2018-10-08</t>
+          <t>2019-01-23</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's PDF Reader, version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability.</t>
+          <t>This vulnerability allows remote attackers to disclose sensitive information on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the processing of BMP images. The issue results from the lack of proper validation of user-supplied data, which can result in a read past the end of an allocated buffer. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6844.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-3942/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17686/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CVE-2018-3941</t>
+          <t>CVE-2018-17685</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -15898,24 +15898,24 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2018-10-08</t>
+          <t>2019-01-23</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>An exploitable use-after-free vulnerability exists in the JavaScript engine of Foxit Software's Foxit PDF Reader version 9.1.0.5096. A specially crafted PDF document can trigger a previously freed object in memory to be reused, resulting in arbitrary code execution. An attacker needs to trick the user to open the malicious file to trigger this vulnerability.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of PDF files. The issue results from the lack of proper validation of user-supplied data, which can result in a type confusion condition. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6819.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-3941/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17685/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CVE-2018-17687</t>
+          <t>CVE-2018-17684</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -15935,19 +15935,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit PhantomPDF 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the exportValues property of a radio button. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-7068.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the isPropertySpecified method. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6470.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17687/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17684/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CVE-2018-17686</t>
+          <t>CVE-2018-17683</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -15957,7 +15957,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -15967,19 +15967,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to disclose sensitive information on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the processing of BMP images. The issue results from the lack of proper validation of user-supplied data, which can result in a read past the end of an allocated buffer. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6844.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the createIcon method of an app object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-7163.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17686/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17683/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CVE-2018-17685</t>
+          <t>CVE-2018-17682</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -15999,19 +15999,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of PDF files. The issue results from the lack of proper validation of user-supplied data, which can result in a type confusion condition. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6819.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the delay property of Annotation objects. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-7157.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17685/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17682/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CVE-2018-17684</t>
+          <t>CVE-2018-17681</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -16031,19 +16031,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the isPropertySpecified method. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6470.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the getPageBox method of a Form. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-7141.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17684/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17681/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CVE-2018-17683</t>
+          <t>CVE-2018-17680</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -16063,19 +16063,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the createIcon method of an app object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-7163.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the style property of a Field object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6915.</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17683/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17680/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CVE-2018-17682</t>
+          <t>CVE-2018-17679</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -16095,19 +16095,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the delay property of Annotation objects. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-7157.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the parsing of PDF documents. By manipulating a document's elements, an attacker can cause a pointer to be reused after it has been freed. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6890.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17682/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17679/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CVE-2018-17681</t>
+          <t>CVE-2018-17678</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -16127,19 +16127,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the getPageBox method of a Form. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-7141.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the gotoNamedDest method of a app object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6851.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17681/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17678/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CVE-2018-17680</t>
+          <t>CVE-2018-17677</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -16159,19 +16159,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the style property of a Field object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6915.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the mailDoc method of a app object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6850.</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17680/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17677/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CVE-2018-17679</t>
+          <t>CVE-2018-17676</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -16191,19 +16191,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the parsing of PDF documents. By manipulating a document's elements, an attacker can cause a pointer to be reused after it has been freed. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6890.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the removeField property of a app object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6849.</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17679/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17676/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CVE-2018-17678</t>
+          <t>CVE-2018-17675</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -16223,19 +16223,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the gotoNamedDest method of a app object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6851.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the removeDataObject method of a document. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6848.</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17678/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17675/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CVE-2018-17677</t>
+          <t>CVE-2018-17674</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -16255,19 +16255,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the mailDoc method of a app object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6850.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the name property of Annotation objects. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6845.</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17677/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17674/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CVE-2018-17676</t>
+          <t>CVE-2018-17673</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -16287,19 +16287,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the removeField property of a app object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6849.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the subtype property of a Annotation object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6820.</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17676/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17673/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CVE-2018-17675</t>
+          <t>CVE-2018-17672</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -16319,19 +16319,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the removeDataObject method of a document. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6848.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of array indices. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6817.</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17675/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17672/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CVE-2018-17674</t>
+          <t>CVE-2018-17671</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -16351,19 +16351,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the name property of Annotation objects. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6845.</t>
+          <t>This vulnerability allows remote attackers to disclose sensitive information on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the Lower method of a XFA object. The issue results from the lack of proper validation of user-supplied data, which can result in a read past the end of an allocated buffer. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6617.</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17674/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17671/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CVE-2018-17673</t>
+          <t>CVE-2018-17670</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -16383,19 +16383,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the subtype property of a Annotation object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6820.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the content property of a XFA object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6524.</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17673/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17670/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CVE-2018-17672</t>
+          <t>CVE-2018-17669</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -16415,19 +16415,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of array indices. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6817.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the name property of a XFA object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6523.</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17672/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17669/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CVE-2018-17671</t>
+          <t>CVE-2018-17668</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -16447,19 +16447,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to disclose sensitive information on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the Lower method of a XFA object. The issue results from the lack of proper validation of user-supplied data, which can result in a read past the end of an allocated buffer. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6617.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the removeAttribute method of a XFA object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6522.</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17671/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17668/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CVE-2018-17670</t>
+          <t>CVE-2018-17656</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -16479,19 +16479,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the content property of a XFA object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6524.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the getDisplayItem method of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6506.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17670/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17656/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CVE-2018-17669</t>
+          <t>CVE-2018-17655</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -16511,19 +16511,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the name property of a XFA object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6523.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the moveInstance method of a Form object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6505.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17669/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17655/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CVE-2018-17668</t>
+          <t>CVE-2018-17654</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -16543,19 +16543,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the removeAttribute method of a XFA object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6522.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the insertInstance method of a Form object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6504.</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17668/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17654/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CVE-2018-17656</t>
+          <t>CVE-2018-17653</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -16575,19 +16575,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the getDisplayItem method of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6506.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the resolveNode method of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6503.</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17656/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17653/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CVE-2018-17655</t>
+          <t>CVE-2018-17652</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -16607,19 +16607,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the moveInstance method of a Form object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6505.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the mandatory property of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6502.</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17655/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17652/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CVE-2018-17654</t>
+          <t>CVE-2018-17651</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -16639,19 +16639,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the insertInstance method of a Form object. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6504.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the getItemState method of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6501.</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17654/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17651/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CVE-2018-17653</t>
+          <t>CVE-2018-17648</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -16671,19 +16671,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the resolveNode method of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6503.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the rotate property of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6485.</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17653/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17648/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CVE-2018-17652</t>
+          <t>CVE-2018-17647</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -16703,19 +16703,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the mandatory property of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6502.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the boundItem method of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6484.</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17652/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17647/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CVE-2018-17651</t>
+          <t>CVE-2018-17646</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -16735,19 +16735,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the getItemState method of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6501.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the fillColor property of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6483.</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17651/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17646/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CVE-2018-17648</t>
+          <t>CVE-2018-17645</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -16767,19 +16767,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the rotate property of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6485.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the vAlign property of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6482.</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17648/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17645/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CVE-2018-17647</t>
+          <t>CVE-2018-17644</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -16799,19 +16799,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the boundItem method of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6484.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the addItem method of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6481.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17647/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17644/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CVE-2018-17646</t>
+          <t>CVE-2018-17643</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -16831,19 +16831,19 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the fillColor property of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6483.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the editValue property of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6480.</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17646/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17643/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CVE-2018-17645</t>
+          <t>CVE-2018-17642</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -16863,19 +16863,19 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the vAlign property of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6482.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the colSpan property of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6479.</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17645/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17642/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CVE-2018-17644</t>
+          <t>CVE-2018-17641</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -16895,19 +16895,19 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the addItem method of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6481.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the deleteItem method of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6478.</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17644/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17641/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CVE-2018-17643</t>
+          <t>CVE-2018-17640</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -16927,19 +16927,19 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the editValue property of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6480.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the Form count property. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6477.</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17643/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17640/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CVE-2018-17642</t>
+          <t>CVE-2018-17639</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -16959,19 +16959,19 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the colSpan property of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6479.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the setElement method. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6475.</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17642/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17639/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CVE-2018-17641</t>
+          <t>CVE-2018-17638</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -16991,19 +16991,19 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the deleteItem method of a TimeField. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6478.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the getAttribute method. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6474.</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17641/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17638/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CVE-2018-17640</t>
+          <t>CVE-2018-17637</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -17023,19 +17023,19 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the Form count property. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6477.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the loadXML method. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6473.</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17640/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17637/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CVE-2018-17639</t>
+          <t>CVE-2018-17636</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -17055,19 +17055,19 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the setElement method. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6475.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the id property of a aliasNode. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6472.</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17639/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17636/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CVE-2018-17638</t>
+          <t>CVE-2018-17635</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -17087,19 +17087,19 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the getAttribute method. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6474.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the desc property. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6471.</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17638/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17635/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CVE-2018-17637</t>
+          <t>CVE-2018-17634</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -17119,19 +17119,19 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the loadXML method. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6473.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the attachIcon property of Annotation objects. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6499.</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17637/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17634/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CVE-2018-17636</t>
+          <t>CVE-2018-17633</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -17151,19 +17151,19 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the id property of a aliasNode. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6472.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the subject property of Annotation objects. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6498.</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17636/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17633/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CVE-2018-17635</t>
+          <t>CVE-2018-17632</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -17183,19 +17183,19 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the desc property. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6471.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the resolveNode event. The issue results from the lack of validation of the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6700.</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17635/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17632/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CVE-2018-17634</t>
+          <t>CVE-2018-17631</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -17215,19 +17215,19 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the attachIcon property of Annotation objects. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6499.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the removeInstance event. The issue results from the lack of validation of the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6500.</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17634/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17631/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CVE-2018-17633</t>
+          <t>CVE-2018-17630</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -17247,19 +17247,19 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the subject property of Annotation objects. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6498.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.1.0.5096. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the openPlayer method. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6616.</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17633/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17630/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CVE-2018-17632</t>
+          <t>CVE-2018-17629</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -17279,19 +17279,19 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the resolveNode event. The issue results from the lack of validation of the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6700.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.1.0.5096. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of template objects. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6614.</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17632/</t>
+          <t>https://www.cvedetails.com/cve/CVE-2018-17629/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CVE-2018-17631</t>
+          <t>CVE-2018-17628</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -17311,106 +17311,10 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the removeInstance event. The issue results from the lack of validation of the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6500.</t>
+          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the XFA setInterval method. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6458.</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
-        <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17631/</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>CVE-2018-17630</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>2019-01-23</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.1.0.5096. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of the openPlayer method. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6616.</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17630/</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>CVE-2018-17629</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>2019-01-23</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.1.0.5096. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the handling of template objects. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6614.</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>https://www.cvedetails.com/cve/CVE-2018-17629/</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>CVE-2018-17628</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Remote</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>2019-01-23</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>This vulnerability allows remote attackers to execute arbitrary code on vulnerable installations of Foxit Reader 9.2.0.9297. User interaction is required to exploit this vulnerability in that the target must visit a malicious page or open a malicious file. The specific flaw exists within the XFA setInterval method. The issue results from the lack of validating the existence of an object prior to performing operations on the object. An attacker can leverage this vulnerability to execute code in the context of the current process. Was ZDI-CAN-6458.</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
         <is>
           <t>https://www.cvedetails.com/cve/CVE-2018-17628/</t>
         </is>
